--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt7b-Fzd10.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt7b-Fzd10.xlsx
@@ -531,28 +531,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.05619466666666666</v>
+        <v>0.05619466666666667</v>
       </c>
       <c r="H2">
         <v>0.168584</v>
       </c>
       <c r="I2">
-        <v>0.1635393031167574</v>
+        <v>0.04986276087265156</v>
       </c>
       <c r="J2">
-        <v>0.2267663493071267</v>
+        <v>0.07297477932340853</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.1038565</v>
+        <v>0.016657</v>
       </c>
       <c r="N2">
-        <v>0.207713</v>
+        <v>0.033314</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -561,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.005836181398666668</v>
+        <v>0.0009360345626666668</v>
       </c>
       <c r="R2">
-        <v>0.035017088392</v>
+        <v>0.005616207376000001</v>
       </c>
       <c r="S2">
-        <v>0.1635393031167574</v>
+        <v>0.04986276087265156</v>
       </c>
       <c r="T2">
-        <v>0.2267663493071267</v>
+        <v>0.07297477932340853</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,34 +587,34 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1.070792</v>
+      </c>
+      <c r="H3">
+        <v>2.141584</v>
+      </c>
+      <c r="I3">
+        <v>0.9501372391273485</v>
+      </c>
+      <c r="J3">
+        <v>0.9270252206765914</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>0.5</v>
       </c>
-      <c r="G3">
-        <v>0.287421</v>
-      </c>
-      <c r="H3">
-        <v>0.574842</v>
-      </c>
-      <c r="I3">
-        <v>0.8364606968832426</v>
-      </c>
-      <c r="J3">
-        <v>0.7732336506928733</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
       <c r="M3">
-        <v>0.1038565</v>
+        <v>0.016657</v>
       </c>
       <c r="N3">
-        <v>0.207713</v>
+        <v>0.033314</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -623,16 +623,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.0298505390865</v>
+        <v>0.017836182344</v>
       </c>
       <c r="R3">
-        <v>0.119402156346</v>
+        <v>0.071344729376</v>
       </c>
       <c r="S3">
-        <v>0.8364606968832426</v>
+        <v>0.9501372391273485</v>
       </c>
       <c r="T3">
-        <v>0.7732336506928733</v>
+        <v>0.9270252206765914</v>
       </c>
     </row>
   </sheetData>
